--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.0464313623348753</t>
+    <t>-5.25</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.22062995858676704</t>
+    <t>0.9</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.9535686376651246</t>
-  </si>
-  <si>
-    <t>0.6460048307718608</t>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -90,37 +90,37 @@
     <t>-1 - y</t>
   </si>
   <si>
-    <t>-1.5944699515105025</t>
+    <t>-4.300000000000001</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.26285038252815807</t>
-  </si>
-  <si>
-    <t>0.9456717590147644</t>
-  </si>
-  <si>
-    <t>0.058993395082234217</t>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
   </si>
   <si>
     <t>-1 + y</t>
   </si>
   <si>
-    <t>-0.4055300484894975</t>
+    <t>2.3000000000000003</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7476228142365086</t>
-  </si>
-  <si>
-    <t>0.9497892530048029</t>
-  </si>
-  <si>
-    <t>0.21461962123367329</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.04643136233487543</t>
-  </si>
-  <si>
-    <t>0.5944699515105025</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.8497331824764911</t>
+    <t>-44.17400000000003</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.01984482369559626</t>
-  </si>
-  <si>
-    <t>-11.939947886534965</t>
+    <t>-2.08</t>
+  </si>
+  <si>
+    <t>-74.65</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -99,10 +99,10 @@
     <t>0.23</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.8000000000000003</t>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
   <si>
     <t>-1 + y</t>
@@ -117,10 +117,10 @@
     <t>0.58</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>3.0</t>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>3.7</t>
   </si>
   <si>
     <t>x</t>
@@ -147,7 +147,7 @@
     <t>-2.08</t>
   </si>
   <si>
-    <t>-74.65</t>
+    <t>-68.85</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.25</t>
+    <t>0.8 - x</t>
+  </si>
+  <si>
+    <t>-1.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>0.68</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>-0.8 + x</t>
+  </si>
+  <si>
+    <t>-0.19999999999999996</t>
+  </si>
+  <si>
+    <t>0.96</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - y</t>
-  </si>
-  <si>
-    <t>-4.300000000000001</t>
+    <t>1.85 - y</t>
+  </si>
+  <si>
+    <t>-2.85</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>-1 + y</t>
-  </si>
-  <si>
-    <t>2.3000000000000003</t>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-1.85 + y</t>
+  </si>
+  <si>
+    <t>0.8500000000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>3.7</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-44.17400000000003</t>
+    <t>-9.14325</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.08</t>
-  </si>
-  <si>
-    <t>-68.85</t>
+    <t>-1.07</t>
+  </si>
+  <si>
+    <t>-33.9</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>0.8 - x</t>
-  </si>
-  <si>
-    <t>-1.8</t>
+    <t>1.9 - x</t>
+  </si>
+  <si>
+    <t>-2.9</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>-0.8 + x</t>
-  </si>
-  <si>
-    <t>-0.19999999999999996</t>
-  </si>
-  <si>
-    <t>0.96</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>-1.9 + x</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.85 - y</t>
-  </si>
-  <si>
-    <t>-2.85</t>
+    <t>0.1499999999999999 - y</t>
+  </si>
+  <si>
+    <t>-1.15</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>-1.85 + y</t>
-  </si>
-  <si>
-    <t>0.8500000000000001</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
+  </si>
+  <si>
+    <t>8.100000000000001</t>
+  </si>
+  <si>
+    <t>-0.15000000000000002 + y</t>
+  </si>
+  <si>
+    <t>-0.85</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.85</t>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-9.14325</t>
+    <t>-0.39675000000000005</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.07</t>
-  </si>
-  <si>
-    <t>-33.9</t>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>-9.2</t>
   </si>
   <si>
     <t>vec_alpha</t>
